--- a/biology/Zoologie/Bibio_dislocatus/Bibio_dislocatus.xlsx
+++ b/biology/Zoologie/Bibio_dislocatus/Bibio_dislocatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bibio consolida, Bibio consolidus, Bibio dislocata, Plecia macroventris
 Bibio dislocatus est une espèce fossile d'insectes diptères de la sous-famille des Bibioninae (famille des Bibionidae).
@@ -512,18 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Bibio dislocatus a été publiée sous le nom Bibio dislocata par Nicolas Théobald en 1937[1]. Cet holotype R146, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle[2]. Ce spécimen provient du gisement de Kleinkembs (ou Kleinkems) oligocène, dans le Bade-Wurtemberg, sur la rive droite du Rhin[2].
-Il a aussi un synonyme noté dans Paleobiology Database Bibio consolida Théobald 1937[3]. L'holotype R935 de ce synonyme vient aussi de la collection Mieg, conservée au Musée d'histoire naturelle de Bâle, et provient du gisement de Kleinkembs. Il a huit cotypes R637, 18, 218, 409, 432, 567, 959, 1021[2].
-Le synonyme Plecia macroventris a les mêmes provenances et est décrit par l'holotype R926[4].
-Synonymes
-†Bibio consolida Theobald, 1937
-†Bibio consolidus Theobald, 1937
-†Bibio dislocata Theobald, 1937
-†Plecia macroventris Theobald, 1937
-Accord révision
-Cette espèce a été initialement classée dans le genre Bibio, ce qui a été confirmé en 2017 par J. Skartveit et A. Nel[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Bibio dislocatus a été publiée sous le nom Bibio dislocata par Nicolas Théobald en 1937. Cet holotype R146, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) vient de la collection Mieg, collection conservée au Musée d'histoire naturelle de Bâle. Ce spécimen provient du gisement de Kleinkembs (ou Kleinkems) oligocène, dans le Bade-Wurtemberg, sur la rive droite du Rhin.
+Il a aussi un synonyme noté dans Paleobiology Database Bibio consolida Théobald 1937. L'holotype R935 de ce synonyme vient aussi de la collection Mieg, conservée au Musée d'histoire naturelle de Bâle, et provient du gisement de Kleinkembs. Il a huit cotypes R637, 18, 218, 409, 432, 567, 959, 1021.
+Le synonyme Plecia macroventris a les mêmes provenances et est décrit par l'holotype R926.
 </t>
         </is>
       </c>
@@ -549,19 +556,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-Diagnose de Nicolas Théobald en 1937[2],[note 1] : ce diptère bibion est un « Insecte au corps noir, ailes grises à nervation de Bibio. ».[2].
-Ou pour le  synonyme, la diagnose est de « Insecte de taille moyenne, tête et thorax noirs, abdomen brun noirâtre ; ailes à stigma bien marqué, pattes noires. »[3].
-Dimensions
-La longueur totale est de 9,5 mm[2] et pour le synonyme la longueur totale est de 8 mm et la longueur des ailes de 6 mm[3].
-Affinités
-L'insecte se rapproche de Bibio parenti par des ailes dépassant l'abdomen, mais a une taille légèrement inférieure (11 mm pour B. parenti). Le stigma est plus étroit et mieux marqué. L'abdomen est plus fortement contracté vers l'arrière[6].
-</t>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>†Bibio consolida Theobald, 1937
+†Bibio consolidus Theobald, 1937
+†Bibio dislocata Theobald, 1937
+†Plecia macroventris Theobald, 1937</t>
         </is>
       </c>
     </row>
@@ -586,12 +595,163 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Accord révision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été initialement classée dans le genre Bibio, ce qui a été confirmé en 2017 par J. Skartveit et A. Nel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bibio_dislocatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_dislocatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diagnose de Nicolas Théobald en 1937,[note 1] : ce diptère bibion est un « Insecte au corps noir, ailes grises à nervation de Bibio. »..
+Ou pour le  synonyme, la diagnose est de « Insecte de taille moyenne, tête et thorax noirs, abdomen brun noirâtre ; ailes à stigma bien marqué, pattes noires. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bibio_dislocatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_dislocatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 9,5 mm et pour le synonyme la longueur totale est de 8 mm et la longueur des ailes de 6 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bibio_dislocatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_dislocatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'insecte se rapproche de Bibio parenti par des ailes dépassant l'abdomen, mais a une taille légèrement inférieure (11 mm pour B. parenti). Le stigma est plus étroit et mieux marqué. L'abdomen est plus fortement contracté vers l'arrière.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bibio_dislocatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibio_dislocatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Le g. Bibio est universellement répandu. Il vit sur les plantes ; les larves se développent dans la terre, dans les déchets des animaux ou dans les débris végétaux. »[7].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Le g. Bibio est universellement répandu. Il vit sur les plantes ; les larves se développent dans la terre, dans les déchets des animaux ou dans les débris végétaux. ».
 </t>
         </is>
       </c>
